--- a/citrus_details_list.xlsx
+++ b/citrus_details_list.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9799febdefbe51c6/ドキュメント/GitHub/citrus_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MIKAN-0510kai/Documents/GitHub/citrus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FE58436C-CD10-E244-85B8-92E630FF9AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB12FFC6-E4F0-4964-A26B-C782F2624830}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB269EC-F364-9C44-A1D1-107D18244F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
+    <workbookView xWindow="8020" yWindow="1140" windowWidth="21340" windowHeight="15420" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
   </bookViews>
   <sheets>
-    <sheet name="説明と画像" sheetId="1" r:id="rId1"/>
-    <sheet name="ヒントリスト" sheetId="2" r:id="rId2"/>
+    <sheet name="description_image" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Item_ID</t>
   </si>
@@ -219,265 +218,6 @@
   </si>
   <si>
     <t>小夏</t>
-  </si>
-  <si>
-    <t>ヒント内容</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヒント番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>甘さが際立つのは、酸味とのバランスが取れている時です。ここでは、希望の甘味の数値に対して、酸味を-2程度にしておくと自然な甘さになります！</t>
-    <rPh sb="0" eb="1">
-      <t>アマサ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キワダテゥ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サンミ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>トレ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>トキデ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アマミ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t xml:space="preserve">ミ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タイセィ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>サンミ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シゼn</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>アマサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>苦味は柑橘の白い繊維や薄皮から感じられます。この苦味を味わえると柑橘の幅が大きく広がります！大人な苦味が好きな人は、苦味を4以上にするのがおすすめです！</t>
-    <rPh sb="0" eb="2">
-      <t>ニガミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンキテゥ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セn</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ウスカワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニガミ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アジワエル</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンキテゥ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オオキクヒ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニガミ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>スキ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニガミ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここでの香りは、口に入れた時の鼻に抜ける香りを指します！味の濃さは香りの強さと大きく影響するので数字が大きいほど風味は豊かですが、味のバランスが雑になりやすいので注意が必要です。</t>
-    <rPh sb="4" eb="5">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クティ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハナニ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>サシマス</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>コサ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツヨサ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オオキク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オオキイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ユタカ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ザテゥ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジューシーな果実が好きな人は果汁量はもちろん大きめに入力するのがおすすめです。しかし、甘味や酸味などが小さいと水っぽい味わいになりやすいので注意が必要です！</t>
-    <rPh sb="6" eb="8">
-      <t>カジテゥ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スキ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>カジュウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オオキメ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョクス</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>アマミ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サンミ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>チイサイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>弾力は口にしてからの印象に大きく影響します。プチッと食感が好きな人は弾力を大きく、口に入れた瞬間にとろけるような味わいが好きな人は小さく入力するのがおすすめです。</t>
-    <rPh sb="0" eb="2">
-      <t>ダンリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クティ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>インショウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オオキク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショッカn</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>スキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ダンリョク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オオキク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>クティ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>スキ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>チイサク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>果頂部に臍（へそ：ネーブル）を持つことを特徴とする品種。ザクザクした食感で、優しく甘い風味を持つ。</t>
@@ -1015,196 +755,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>../citrus_images/citrus_1.JPG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_2.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_3.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_4.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_5.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_6.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_7.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_8.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_9.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_10.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_11.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_12.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_13.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_14.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_15.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_16.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_17.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_18.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_19.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_20.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_21.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_22.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_23.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_24.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_25.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_26.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_27.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_28.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_29.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_30.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_31.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_32.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_33.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_34.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_35.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_36.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_37.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_38.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_39.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_40.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_41.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_42.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_43.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_44.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_45.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_46.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_47.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_48.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_49.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_50.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_51.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_52.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_53.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_54.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_55.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_56.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_57.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_58.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_59.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_60.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_61.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_62.JPG</t>
-  </si>
-  <si>
-    <t>../citrus_images/citrus_63.JPG</t>
-  </si>
-  <si>
     <t>麗紅</t>
     <rPh sb="1" eb="2">
       <t xml:space="preserve">ベニ </t>
@@ -1217,6 +767,830 @@
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>citrus_images/citrus_1.JPG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>citrus_images/citrus_2.JPG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>citrus_images/citrus_3.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_4.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_5.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_6.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_7.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_8.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_9.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_10.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_11.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_12.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_13.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_14.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_15.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_16.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_18.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_19.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_20.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_21.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_22.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_23.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_24.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_25.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_26.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_27.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_28.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_29.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_30.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_31.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_32.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_33.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_34.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_35.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_36.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_37.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_38.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_39.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_40.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_41.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_42.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_43.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_44.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_45.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_46.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_47.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_48.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_49.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_50.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_51.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_52.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_53.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_54.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_55.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_56.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_57.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_58.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_59.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_60.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_61.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_62.JPG</t>
+  </si>
+  <si>
+    <t>citrus_images/citrus_63.JPG</t>
+  </si>
+  <si>
+    <t>果皮や薄皮は厚めで少々食べずらいが、強く豊かな香りが特徴。ジャムなどの加工品にするとより楽しめる。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウスカワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アツメ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツヨク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カコウヒンニスル</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生産環境で味わいや食感が豊かに変化する。グレープフルーツと外見が似ているが、苦味は少なく、果汁も多い。</t>
+    <rPh sb="0" eb="2">
+      <t>セイサn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アジワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショッカn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガイケn</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ニテ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スクナク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カジュウム</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オオイ/</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果汁が多く、弾力とサクサクとした食感が特徴的。デコポンといった方が伝わるかな？</t>
+    <rPh sb="0" eb="2">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショッカn</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツタワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みかんとオレンジの掛け合わせで、みかんのような弾力とオレンジのような香りが特徴的。多くの品種の親でもある。</t>
+    <rPh sb="9" eb="10">
+      <t>カケアワセ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒンセィウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一口サイズで、多くが皮ごと食べられます。果肉の甘味と果皮のふんわりとした苦味がクセになって手が止まりません。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトクティ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カワゴト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アマッミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カヒ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">テガ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>トマリマセn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃厚なコクと甘さが特徴的で、柑橘の大トロと呼ばれる。一度食べたら甘さの余韻が口に広がります。</t>
+    <rPh sb="0" eb="2">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキテゥ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオトロ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヨイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>クティ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒロガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄色い果肉でも、十分な甘さと爽やかな香りで清涼感があります。ゴールドの名の通り、煌びやかで希少性もある地域品種です。</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウブn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>セイリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナノトオル</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キラビヤカ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果肉には弾力があり、果肉同士の身離れが良いため、サクサクとした食感が楽しい。すっきりした酸味と苦味で上品な味わい。</t>
+    <rPh sb="0" eb="2">
+      <t>カニクン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミバナレ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショッカn</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t xml:space="preserve">タノシイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウヒn</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果皮を剥くと白い内皮で包まれている。この内皮のほんのりとした甘味と果肉の爽やかな酸味のバランスがよく、柑橘でも珍しい味わいがある。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ナイヒ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヒ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンキテゥ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メズラシイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾力のある果肉はプリプリしていて、上品な甘さ、酸味、苦味のバランスが絶妙です。文旦特有の香りは香水にされるほど魅力的です。</t>
+    <rPh sb="0" eb="2">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウヒn</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゼツミョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ブンタn</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウスイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ミリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>citrus_images/citrus_17.JPG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃厚な酸味と豊かな香りで、その果汁が主に楽しまれている。時間の経過で、酸味と香りのバランスが変化し、その違いも楽しい。</t>
+    <rPh sb="0" eb="1">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オモニ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカn</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チガイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さっぱりとした甘味と爽やかな酸味・香りが特徴。種が多いため、多くは果汁を使って楽しまれている。</t>
+    <rPh sb="7" eb="9">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オオイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツカッテ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果皮は薄く、果実と密着して味を閉じ込めてくれている。甘さを引き立てる適度な酸味を兼ね備えたみかん。</t>
+    <rPh sb="0" eb="1">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウスク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カジテゥ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トジコメ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒキタテ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カネソナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>独特な酸味と香りで万能柑橘として活躍できる。料理の香り付として味を引き締めたり、紅茶に入れてすだちティーにするのも相性良し。</t>
+    <rPh sb="0" eb="2">
+      <t>ドクトクナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンキテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カツヤク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カオリデ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒキシメ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウティア</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イレ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃厚な香りと苦味、そして千手観音のような見た目が特徴。果肉がないため、果皮を砂糖付やマーマレードにして食べる。観賞用でも楽しまれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>センジュカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミタメ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カヒヲ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ツケ </t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カンショウヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘みを包むようなすっきりした酸味が特徴。手に入りやすい夏には、むしろこの酸味が爽やかに感じられる。</t>
+    <rPh sb="3" eb="4">
+      <t>ツツム</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テニ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナテゥ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果肉はとろっとして柔らかく、濃厚な甘さで味わい深い。樹上で長く熟成されるため、見た目は悪くなりやすいが中身は絶品。</t>
+    <rPh sb="9" eb="10">
+      <t>ヤワラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アマミガ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">ジュ </t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナガク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ミタメ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ワルク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゼッピn</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1302,18 +1676,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1660,15 +2028,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F59F471-3BBF-BF4C-A807-95D34CBECD0F}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="18.69140625" customWidth="1"/>
-    <col min="3" max="3" width="25.69140625" customWidth="1"/>
-    <col min="4" max="4" width="45.3828125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1679,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1693,7 +2061,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1704,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1715,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1726,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1740,7 +2111,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1751,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1765,7 +2139,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1776,7 +2153,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1787,7 +2167,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1798,7 +2181,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1809,7 +2195,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1820,7 +2209,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1831,7 +2223,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1842,7 +2237,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1853,7 +2251,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1864,10 +2265,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1878,7 +2279,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1889,10 +2293,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1903,7 +2307,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1914,7 +2321,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1925,7 +2335,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1936,7 +2349,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1947,7 +2363,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1958,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1969,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1980,7 +2399,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1991,10 +2410,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2005,7 +2424,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2016,7 +2435,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2027,7 +2446,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2038,7 +2457,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2049,7 +2468,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2057,10 +2476,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2071,7 +2490,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2082,10 +2501,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2096,7 +2515,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2107,10 +2526,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2121,7 +2540,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2132,7 +2551,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2143,10 +2562,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2157,7 +2576,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2168,7 +2587,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2179,7 +2598,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2190,7 +2609,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2201,10 +2620,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>74</v>
+        <v>127</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2215,10 +2634,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>75</v>
+        <v>128</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2229,10 +2648,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2243,10 +2662,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2257,10 +2676,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>78</v>
+        <v>131</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2271,10 +2690,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>81</v>
+        <v>132</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2285,10 +2704,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2299,10 +2718,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>87</v>
+        <v>134</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2313,7 +2732,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2324,10 +2743,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>79</v>
+        <v>136</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2338,7 +2757,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2349,7 +2768,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2360,7 +2779,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2371,7 +2790,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2382,7 +2801,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2393,7 +2812,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2404,7 +2823,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2415,7 +2834,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2426,74 +2845,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14352D0-F621-CF44-99FB-C884715A160C}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
-  <cols>
-    <col min="2" max="2" width="44.69140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="80">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="80">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="80">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="80">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/citrus_details_list.xlsx
+++ b/citrus_details_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MIKAN-0510kai/Documents/GitHub/citrus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB269EC-F364-9C44-A1D1-107D18244F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627577BA-57FB-244A-86FC-52ED9319C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="1140" windowWidth="21340" windowHeight="15420" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
+    <workbookView xWindow="6720" yWindow="1420" windowWidth="21340" windowHeight="15420" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="description_image" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Item_ID</t>
   </si>
@@ -364,25 +364,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>みかんのように手軽に食べられ、風味は後引きのある甘さ。</t>
-    <rPh sb="7" eb="9">
-      <t>テガル</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タベ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>アマサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>甘みの立ち上がりがよく、すっきりとキレがある。弾力のある食感が楽しい。</t>
     <rPh sb="0" eb="1">
       <t>アマミ</t>
@@ -1403,43 +1384,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>果皮は薄く、果実と密着して味を閉じ込めてくれている。甘さを引き立てる適度な酸味を兼ね備えたみかん。</t>
-    <rPh sb="0" eb="1">
-      <t>カヒ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウスク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カジテゥ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミッチャク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トジコメ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>アマサ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒキタテ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サンミ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カネソナエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>独特な酸味と香りで万能柑橘として活躍できる。料理の香り付として味を引き締めたり、紅茶に入れてすだちティーにするのも相性良し。</t>
     <rPh sb="0" eb="2">
       <t>ドクトクナ</t>
@@ -1590,6 +1534,937 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>ゼッピn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃厚な甘味と、それを際立たせる酸味のバランスが取れた果汁がたっぷりで、満足度が高い品種。</t>
+    <rPh sb="0" eb="2">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キワダタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トレタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>マンゾク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒンセィウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄色い見た目と裏腹に、甘さとフルーティな香りが口いっぱいに広がり、この裏切りに魅了される。</t>
+    <rPh sb="0" eb="1">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミタメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウラハラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>クティ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒロガ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ウラギリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熟成期間が長く、凝縮された旨味と持続的な甘味で、濃厚な味わいを楽しめる。</t>
+    <rPh sb="0" eb="4">
+      <t>ジュクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ウマミ </t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強い酸味に負けないほんのりと残る苦味とまろやかな風味が癖になってしまう。たっぷりの果汁で楽しめる。</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マケ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノコル</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">クセ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すごく酸味が強いが、絞った果汁の香りは強く、爽やかですっきりとした変化を与えてくれる。</t>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シボッタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツヨク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種はあるものの、ほんのりした甘味と上品な香りによる豊かな味わいで江戸時代から楽しまれている。</t>
+    <rPh sb="14" eb="16">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウヒn</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まろやかな酸味とフレッシュな香りで多くの料理に活用され、味を引き立てるのが得意。</t>
+    <rPh sb="5" eb="7">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒキタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トクイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジのように濃厚で豊かな香りと、みかんのように甘味と酸味のバランスが良い味わいが人気。</t>
+    <rPh sb="8" eb="10">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>_x0000__x0008_</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>_x0002__x0004_</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>_x000B__x0001_</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「柑橘の大トロ」と呼ばれるほど、コクと甘味と果汁の全てが豊かな品種。果汁が手につくと、拭いても少しベトつくほど。</t>
+    <rPh sb="1" eb="3">
+      <t>カンキテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオトロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スベテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒンセィウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テニ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>フイテ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>スコセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深い酸味と爽やかな香りが特徴。少し小ぶりな見た目が可愛い。</t>
+    <rPh sb="0" eb="1">
+      <t>フカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スコセィ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コブリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミタメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カワイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特有の爽やかでフレッシュな香りが特徴。果実は酸味が強いが、果汁や果皮によって多能な味わいが楽しめる。</t>
+    <rPh sb="0" eb="2">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">トクチョウ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カジテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タノウナ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タノセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キリッとした酸味と香りの風味と、独特な苦味のバランスが味を華やかにする。香りづけや薬味として活用される。</t>
+    <rPh sb="6" eb="8">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハナヤ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果汁はほとんどないが、果実は魚卵のように小さくプチプチとして、独特の苦みと爽やかな酸味や香りが弾ける。</t>
+    <rPh sb="11" eb="13">
+      <t>カジテゥ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギョラn</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チイサク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ニガイム</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハジケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強い甘味を持つ果肉がぎっしり詰まっているが、食感はシャキッとしていて、唯一無二の味わいが魅力的。</t>
+    <rPh sb="0" eb="2">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モテゥ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツマッテ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショッカn</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ユイイテゥ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アジワイガ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ミリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>気にならない程度に種はあるが、強く濃厚な甘味とジューシーでぷちぷちした果肉の食感が魅力。</t>
+    <rPh sb="0" eb="1">
+      <t>キニナラナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アルガ、</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツヨク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショッカn</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ミリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豊かなでフルーティな特有の香り溢れる果汁が特徴。果皮も薄く、種も少ないため絞りやすい。</t>
+    <rPh sb="0" eb="1">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アフレル </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウスク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スクナイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果皮は薄く、果肉と密着して味を閉じ込めてくれている。甘さを引き立てる適度な酸味を兼ね備えたみかん。</t>
+    <rPh sb="0" eb="1">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウスク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トジコメ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒキタテ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カネソナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冬を樹上で越えるため、強い甘味とたっぷりの果汁を蓄えたオレンジの品種。</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コエル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヨク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タクワエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジのような爽やかな香りと上品な甘味を持つ柔らかな果肉は、まるでジュースを食べているかのよう。</t>
+    <rPh sb="8" eb="9">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウヒn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まろやかで濃厚な甘味とオレンジのような香りを、柔らかな果肉を口に入れた途端に広がる。</t>
+    <rPh sb="5" eb="7">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヤワラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>クティ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トタn</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒロガル。</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種は多めだが、強い甘味をより引き立てる程よい酸味がある濃厚な味わい。果肉はとろっとしている。</t>
+    <rPh sb="2" eb="3">
+      <t>オオケダガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒキタテ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホドヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アジワ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文旦の一種で、爽やかな甘味と程よい酸味がある。香り豊かで日持ちするため、観賞用として楽しむこともできる。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンタn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッセィウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サワヤカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホドヨイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒモティ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">カンショウヨウ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みかんのように手軽で簡単に食べられ、風味は後引きのある甘さ。</t>
+    <rPh sb="7" eb="9">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンタn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アマサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インパクトのある赤い果肉と果汁。貯蔵するほど増す旨味と芳醇な香りは、この品種でしか味わえない。</t>
+    <rPh sb="8" eb="9">
+      <t>アカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カジュウガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">マス </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウマミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウジュn</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒn</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酸味が穏やかで、甘味をしっかりを感じられる。その果肉は引き締まっている。</t>
+    <rPh sb="0" eb="2">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オダヤカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒキシマッテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グレープフルーツ特有の酸味や苦味が少なく、清涼感のある香りとしっかりした甘味の果肉が特徴の品種。</t>
+    <rPh sb="8" eb="10">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スクナク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>セイリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カニク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒンセィウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定番のグレープフルーツ品種。ほのかな酸味と程よい苦味が豊かな風味を際立たせる。</t>
+    <rPh sb="0" eb="2">
+      <t>テイバn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒンセィウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンミデ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホドヨイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キワダタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>苦味や酸味が少なく、香り豊かで甘くジューシーな果汁溢れる新感覚のグレープフルーツ。</t>
+    <rPh sb="0" eb="2">
+      <t>ニガミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カオリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アマク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アフレ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>シンカンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白皮を残すことで独特の甘酸っぱさを楽しめる。出回る夏の初めにさっぱりとさせてくれる。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シロ </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>🏞️</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノコス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タノセィ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デマワル</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘味と酸味のバランスが抜群で、濃厚な風味が味わえる。収穫のタイミングで甘味の際立ち方が異なる。</t>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バツグn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウカク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キワダティ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コトナル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>果皮はやや厚いが、強めの甘味とコク、そして舌触りの良さが味わい深い。</t>
+    <rPh sb="0" eb="1">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アツイガ、</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヨメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シタザワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨサ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フカイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2028,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F59F471-3BBF-BF4C-A807-95D34CBECD0F}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
@@ -2047,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2061,10 +2936,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2075,7 +2950,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2086,7 +2964,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2097,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>66</v>
@@ -2111,10 +2992,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2125,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2139,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2153,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2167,10 +3048,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2181,10 +3062,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2195,10 +3076,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2209,10 +3090,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2223,10 +3104,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2237,10 +3118,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2251,10 +3132,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2265,10 +3146,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2279,10 +3160,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2293,7 +3174,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>65</v>
@@ -2307,10 +3188,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2321,10 +3202,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2335,10 +3216,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2349,10 +3230,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2363,10 +3244,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2377,7 +3258,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2388,7 +3272,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2399,7 +3286,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2410,7 +3300,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>64</v>
@@ -2424,7 +3314,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2435,7 +3328,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2446,7 +3342,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2457,7 +3356,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2468,7 +3370,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2476,10 +3381,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2490,7 +3398,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2501,10 +3412,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2515,7 +3426,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2526,10 +3440,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2540,7 +3454,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2551,7 +3468,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2562,10 +3482,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2576,7 +3496,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2587,7 +3510,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2598,7 +3524,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2609,7 +3538,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2620,7 +3552,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>67</v>
@@ -2634,10 +3566,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2648,10 +3580,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2662,10 +3594,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2676,10 +3608,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2690,10 +3622,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2704,10 +3636,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2718,10 +3650,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2732,7 +3664,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2743,10 +3678,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2757,7 +3692,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2768,7 +3706,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2779,7 +3720,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2790,7 +3734,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2801,7 +3748,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2812,7 +3762,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2823,7 +3776,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2834,7 +3790,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2845,7 +3804,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/citrus_details_list.xlsx
+++ b/citrus_details_list.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MIKAN-0510kai/Documents/GitHub/citrus_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9799febdefbe51c6/ドキュメント/GitHub/citrus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627577BA-57FB-244A-86FC-52ED9319C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{627577BA-57FB-244A-86FC-52ED9319C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FB29133-2225-4DDD-B6F5-778D3CDF9C3F}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1420" windowWidth="21340" windowHeight="15420" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17CFEB97-29D2-DF4C-B65C-536D70A99CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="description_image" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1748,16 +1749,7 @@
       <t>カオリ</t>
     </rPh>
     <rPh sb="36" eb="37">
-      <t>_x0000__x0008_</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>_x0002__x0004_</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>_x000B__x0001_</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t/>
+      <t>_x0000__x0008__x0002__x0004__x000B__x0001_</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2903,15 +2895,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F59F471-3BBF-BF4C-A807-95D34CBECD0F}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" customWidth="1"/>
+    <col min="3" max="3" width="25.69140625" customWidth="1"/>
+    <col min="4" max="4" width="45.3828125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
